--- a/2. Blend and Analyse/Pop_Culture_Data_Blending_Learner_Exercises.xlsx
+++ b/2. Blend and Analyse/Pop_Culture_Data_Blending_Learner_Exercises.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://b2wcompletetraining057-my.sharepoint.com/personal/michael_chittenden_justit_co_uk/Documents/Desktop/harshad/Harshad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PersonalAssistant\SD_Training\2. Blend and Analyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_B44D3EB4D4EF814965317EC31E5CB7F399B3B5C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D08DFDD5-ECD4-4CF3-AEC6-3080979CC19F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69725E-7235-43F9-B992-BCD40B5AFA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Films" sheetId="1" r:id="rId2"/>
-    <sheet name="Ratings" sheetId="2" r:id="rId3"/>
-    <sheet name="Exercises" sheetId="3" r:id="rId4"/>
+    <sheet name="Films" sheetId="1" r:id="rId1"/>
+    <sheet name="Ratings" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercises" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>FilmID</t>
   </si>
@@ -261,42 +257,6 @@
   </si>
   <si>
     <t>Which data quality issues affected your answers, and how did you resolve them?</t>
-  </si>
-  <si>
-    <t>Viewer Rating</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Countif</t>
-  </si>
-  <si>
-    <t>Countifs</t>
-  </si>
-  <si>
-    <t>Sum of Box Office</t>
-  </si>
-  <si>
-    <t>Sum of Sci-Fi</t>
-  </si>
-  <si>
-    <t>Sum Action after 2016</t>
-  </si>
-  <si>
-    <t>Average Rating</t>
-  </si>
-  <si>
-    <t>Average Netflix</t>
-  </si>
-  <si>
-    <t>Av Box for Action after 2015</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -332,24 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -362,281 +311,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Chittenden" refreshedDate="46042.606861111111" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{620D9121-C0D7-4772-AA9D-4815C0EA986C}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="FilmID" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Title" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="ReleaseYear" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2023" count="10">
-        <n v="2016"/>
-        <n v="2018"/>
-        <n v="2015"/>
-        <n v="2021"/>
-        <n v="2014"/>
-        <n v="2019"/>
-        <n v="2022"/>
-        <n v="2017"/>
-        <n v="2020"/>
-        <n v="2023"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Genre" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="LeadActor" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Budget_m" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="220"/>
-    </cacheField>
-    <cacheField name="BoxOffice_m" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="98" maxValue="1340"/>
-    </cacheField>
-    <cacheField name="Viewer Rating" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="8.8000000000000007"/>
-    </cacheField>
-    <cacheField name="Platform" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
-  <r>
-    <s v="F001"/>
-    <s v="Iron Sentinel"/>
-    <x v="0"/>
-    <s v="Action"/>
-    <s v="Chris Evans"/>
-    <n v="180"/>
-    <n v="585"/>
-    <n v="7.8"/>
-    <s v="Netflix"/>
-  </r>
-  <r>
-    <s v="F002"/>
-    <s v="Night Vigil"/>
-    <x v="1"/>
-    <s v="Action"/>
-    <s v="Robert Downey Jr"/>
-    <n v="200"/>
-    <n v="1120"/>
-    <n v="8.6"/>
-    <s v="Disney+"/>
-  </r>
-  <r>
-    <s v="F003"/>
-    <s v="Laughing Matters"/>
-    <x v="2"/>
-    <s v="Comedy"/>
-    <s v="Melissa McCarthy"/>
-    <n v="45"/>
-    <n v="210"/>
-    <n v="6.9"/>
-    <s v="Amazon"/>
-  </r>
-  <r>
-    <s v="F004"/>
-    <s v="Quantum Divide"/>
-    <x v="3"/>
-    <s v="Sci-Fi"/>
-    <s v="Benedict Cumberbatch"/>
-    <n v="165"/>
-    <n v="950"/>
-    <n v="8.4"/>
-    <s v="Disney+"/>
-  </r>
-  <r>
-    <s v="F005"/>
-    <s v="Broken Crown"/>
-    <x v="4"/>
-    <s v="Drama"/>
-    <s v="Tom Hardy"/>
-    <n v="35"/>
-    <n v="98"/>
-    <n v="7.1"/>
-    <s v="Netflix"/>
-  </r>
-  <r>
-    <s v="F006"/>
-    <s v="City of Masks"/>
-    <x v="5"/>
-    <s v="Thriller"/>
-    <s v="Scarlett Johansson"/>
-    <n v="110"/>
-    <n v="410"/>
-    <n v="7.9"/>
-    <s v="Netflix"/>
-  </r>
-  <r>
-    <s v="F007"/>
-    <s v="Galaxy Reborn"/>
-    <x v="6"/>
-    <s v="Sci-Fi"/>
-    <s v="Chris Pratt"/>
-    <n v="220"/>
-    <n v="1340"/>
-    <n v="8.8000000000000007"/>
-    <s v="Disney+"/>
-  </r>
-  <r>
-    <s v="F008"/>
-    <s v="The Last Heist"/>
-    <x v="7"/>
-    <s v="Crime"/>
-    <s v="Idris Elba"/>
-    <n v="70"/>
-    <n v="305"/>
-    <n v="7.3"/>
-    <s v="Amazon"/>
-  </r>
-  <r>
-    <s v="F009"/>
-    <s v="Laughing Matters 2"/>
-    <x v="8"/>
-    <s v="Comedy"/>
-    <s v="Melissa McCarthy"/>
-    <n v="60"/>
-    <n v="320"/>
-    <n v="7.4"/>
-    <s v="Amazon"/>
-  </r>
-  <r>
-    <s v="F010"/>
-    <s v="Iron Sentinel: Legacy"/>
-    <x v="9"/>
-    <s v="Action"/>
-    <s v="Chris Evans"/>
-    <n v="210"/>
-    <n v="880"/>
-    <n v="8.1"/>
-    <s v="Netflix"/>
-  </r>
-  <r>
-    <s v="F011"/>
-    <s v="Silent Harbour"/>
-    <x v="0"/>
-    <s v="Drama"/>
-    <s v="Emily Blunt"/>
-    <n v="40"/>
-    <m/>
-    <n v="0"/>
-    <s v="Netflix"/>
-  </r>
-  <r>
-    <s v="F012"/>
-    <s v="Quantum Divide"/>
-    <x v="3"/>
-    <s v="Sci-Fi"/>
-    <s v="Benedict Cumberbatch"/>
-    <n v="165"/>
-    <n v="950"/>
-    <n v="8.4"/>
-    <s v="Disney+"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C5FC1F7-D59E-4C6F-A79E-F24DE6CAE001}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43EF5D05-EA4F-4630-B0D7-2E8337E82919}" name="Table1" displayName="Table1" ref="A1:I12" totalsRowShown="0">
-  <autoFilter ref="A1:I12" xr:uid="{43EF5D05-EA4F-4630-B0D7-2E8337E82919}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{43EF5D05-EA4F-4630-B0D7-2E8337E82919}" name="Table1" displayName="Table1" ref="A1:G12" totalsRowShown="0">
+  <autoFilter ref="A1:G12" xr:uid="{43EF5D05-EA4F-4630-B0D7-2E8337E82919}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0BDDCB38-882A-434D-8CA0-B37CC8A262D7}" name="FilmID"/>
     <tableColumn id="2" xr3:uid="{EF5761B1-E8FF-429C-A96C-995C2C381D48}" name="Title"/>
     <tableColumn id="3" xr3:uid="{321424CC-048D-4C26-B38E-40B3631C56F6}" name="ReleaseYear"/>
@@ -644,12 +322,6 @@
     <tableColumn id="5" xr3:uid="{55BD0468-ABC7-4CBA-9779-1FD6ADF39BDE}" name="LeadActor"/>
     <tableColumn id="6" xr3:uid="{A5DE6C8D-3C96-4885-9D2F-EDFC36BEC4B6}" name="Budget_m"/>
     <tableColumn id="7" xr3:uid="{83DABEF1-C44B-4CC3-A279-7C5BAC2812AA}" name="BoxOffice_m"/>
-    <tableColumn id="8" xr3:uid="{589C2923-9E71-4A98-9238-E86389C9A2FF}" name="Viewer Rating" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{1549796D-01FE-4B9A-AEEB-397695B9EF39}" name="Platform" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,89 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECB9CE-6872-420E-8713-24286BCBE0A4}">
-  <dimension ref="A3:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G16" sqref="G15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,10 +637,9 @@
     <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,14 +661,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1097,16 +684,8 @@
       <c r="G2">
         <v>585</v>
       </c>
-      <c r="H2">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>7.8</v>
-      </c>
-      <c r="I2" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Netflix</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1128,16 +707,8 @@
       <c r="G3">
         <v>1120</v>
       </c>
-      <c r="H3">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>8.6</v>
-      </c>
-      <c r="I3" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Disney+</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1159,16 +730,8 @@
       <c r="G4">
         <v>210</v>
       </c>
-      <c r="H4">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>6.9</v>
-      </c>
-      <c r="I4" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1190,16 +753,8 @@
       <c r="G5">
         <v>950</v>
       </c>
-      <c r="H5">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>8.4</v>
-      </c>
-      <c r="I5" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Disney+</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1221,16 +776,8 @@
       <c r="G6">
         <v>98</v>
       </c>
-      <c r="H6">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>7.1</v>
-      </c>
-      <c r="I6" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Netflix</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1252,16 +799,8 @@
       <c r="G7">
         <v>410</v>
       </c>
-      <c r="H7">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>7.9</v>
-      </c>
-      <c r="I7" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Netflix</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1283,16 +822,8 @@
       <c r="G8">
         <v>1340</v>
       </c>
-      <c r="H8">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I8" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Disney+</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1314,16 +845,8 @@
       <c r="G9">
         <v>305</v>
       </c>
-      <c r="H9">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>7.3</v>
-      </c>
-      <c r="I9" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1345,16 +868,8 @@
       <c r="G10">
         <v>320</v>
       </c>
-      <c r="H10">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>7.4</v>
-      </c>
-      <c r="I10" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Amazon</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1376,16 +891,8 @@
       <c r="G11">
         <v>880</v>
       </c>
-      <c r="H11">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!B:B,"Not found")</f>
-        <v>8.1</v>
-      </c>
-      <c r="I11" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Netflix</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1403,106 +910,6 @@
       </c>
       <c r="F12">
         <v>40</v>
-      </c>
-      <c r="G12">
-        <v>593.25</v>
-      </c>
-      <c r="H12">
-        <v>7.6</v>
-      </c>
-      <c r="I12" t="str">
-        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Title]],Ratings!A:A,Ratings!C:C,"Not found")</f>
-        <v>Netflix</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
-        <f>AVERAGEIF(Table1[Platform],A14,Table1[BoxOffice_m])</f>
-        <v>513.25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14">
-        <f>COUNTA(Table1[BoxOffice_m])</f>
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14">
-        <f>SUM(Table1[BoxOffice_m])</f>
-        <v>6811.25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <f>AVERAGE(Table1[Viewer Rating])</f>
-        <v>7.8090909090909086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <f>AVERAGEIF(Table1[Platform],A15,Table1[BoxOffice_m])</f>
-        <v>1136.6666666666667</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15">
-        <f>COUNTIF(Table1[Genre],"Action")</f>
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15">
-        <f>SUMIF(Table1[Genre],"Sci-Fi",Table1[BoxOffice_m])</f>
-        <v>2290</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15">
-        <f>AVERAGEIF(Table1[Platform],"Amazon",Table1[Viewer Rating])</f>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16">
-        <f>AVERAGEIF(Table1[Platform],A16,Table1[BoxOffice_m])</f>
-        <v>278.33333333333331</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16">
-        <f>COUNTIFS(Table1[ReleaseYear],"&gt;2018",Table1[Genre],"Action")</f>
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16">
-        <f>SUMIFS(Table1[BoxOffice_m],Table1[ReleaseYear],"&gt;2016",Table1[Genre],"Action")</f>
-        <v>2000</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16">
-        <f>AVERAGEIFS(Table1[BoxOffice_m],Table1[Genre],"Action",Table1[ReleaseYear],"&gt;2015")</f>
-        <v>861.66666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1665,11 +1072,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
